--- a/src/site/resources/statistics/intenzStats-2012.xlsx
+++ b/src/site/resources/statistics/intenzStats-2012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="308" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="453" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
@@ -434,9 +434,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -447,10 +447,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -471,6 +471,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -478,10 +481,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$8:$M$8</c:f>
+              <c:f>Table!$B$8:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4731</c:v>
                 </c:pt>
@@ -492,10 +495,10 @@
                   <c:v>4770</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>4836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>4863</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -516,6 +519,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -548,9 +554,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -561,10 +567,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -585,6 +591,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -592,10 +601,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$9:$M$9</c:f>
+              <c:f>Table!$B$9:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>805</c:v>
                 </c:pt>
@@ -606,10 +615,10 @@
                   <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -630,6 +639,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -662,9 +674,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -675,10 +687,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -699,6 +711,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -706,10 +721,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$10:$M$10</c:f>
+              <c:f>Table!$B$10:$N$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>71</c:v>
                 </c:pt>
@@ -720,10 +735,10 @@
                   <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -744,6 +759,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -776,9 +794,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -789,10 +807,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -813,6 +831,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -820,10 +841,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$11:$M$11</c:f>
+              <c:f>Table!$B$11:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>79</c:v>
                 </c:pt>
@@ -834,10 +855,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -858,6 +879,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -890,9 +914,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -903,10 +927,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -927,6 +951,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -934,10 +961,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$12:$M$12</c:f>
+              <c:f>Table!$B$12:$N$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -948,10 +975,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -972,6 +999,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -1004,9 +1034,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1017,10 +1047,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1041,6 +1071,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1048,10 +1081,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$13:$M$13</c:f>
+              <c:f>Table!$B$13:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>NaN</c:v>
                 </c:pt>
@@ -1062,7 +1095,7 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>NaN</c:v>
@@ -1086,6 +1119,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -1118,9 +1154,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1131,10 +1167,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1155,6 +1191,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1162,10 +1201,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$14:$M$14</c:f>
+              <c:f>Table!$B$14:$N$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>NaN</c:v>
                 </c:pt>
@@ -1200,6 +1239,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -1232,9 +1274,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1245,10 +1287,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1269,6 +1311,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1276,10 +1321,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$15:$M$15</c:f>
+              <c:f>Table!$B$15:$N$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>NaN</c:v>
                 </c:pt>
@@ -1314,6 +1359,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -1322,11 +1370,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="39141661"/>
-        <c:axId val="42069555"/>
+        <c:axId val="93012776"/>
+        <c:axId val="45114863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39141661"/>
+        <c:axId val="93012776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,7 +1400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="42069555"/>
+        <c:crossAx val="45114863"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1366,7 +1414,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42069555"/>
+        <c:axId val="45114863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1407,7 +1455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39141661"/>
+        <c:crossAx val="93012776"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -1492,9 +1540,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1505,10 +1553,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1529,6 +1577,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1536,10 +1587,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$43:$M$43</c:f>
+              <c:f>Table!$B$43:$N$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5536</c:v>
                 </c:pt>
@@ -1550,10 +1601,10 @@
                   <c:v>5580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5683</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1574,6 +1625,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1606,9 +1660,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1619,10 +1673,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1643,6 +1697,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1650,10 +1707,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$44:$M$44</c:f>
+              <c:f>Table!$B$44:$N$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>150</c:v>
                 </c:pt>
@@ -1664,10 +1721,10 @@
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1688,6 +1745,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1720,9 +1780,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1733,10 +1793,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -1757,6 +1817,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -1764,10 +1827,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$45:$M$45</c:f>
+              <c:f>Table!$B$45:$N$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1778,10 +1841,10 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1802,6 +1865,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1810,11 +1876,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="13565201"/>
-        <c:axId val="63328180"/>
+        <c:axId val="69732206"/>
+        <c:axId val="40675292"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13565201"/>
+        <c:axId val="69732206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1840,7 +1906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="63328180"/>
+        <c:crossAx val="40675292"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1854,7 +1920,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63328180"/>
+        <c:axId val="40675292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -1895,7 +1961,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13565201"/>
+        <c:crossAx val="69732206"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -1982,9 +2048,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -1995,10 +2061,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2019,6 +2085,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2026,10 +2095,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$27:$M$27</c:f>
+              <c:f>Table!$B$27:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3395</c:v>
                 </c:pt>
@@ -2040,10 +2109,10 @@
                   <c:v>3392</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>3389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2064,6 +2133,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2096,9 +2168,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2109,10 +2181,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2133,6 +2205,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2140,10 +2215,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$28:$M$28</c:f>
+              <c:f>Table!$B$28:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
                 </c:pt>
@@ -2154,10 +2229,10 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2178,6 +2253,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2210,9 +2288,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2223,10 +2301,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2247,6 +2325,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2254,10 +2335,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$29:$M$29</c:f>
+              <c:f>Table!$B$29:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>344</c:v>
                 </c:pt>
@@ -2268,10 +2349,10 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2292,6 +2373,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2324,9 +2408,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2337,10 +2421,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2361,6 +2445,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2368,10 +2455,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$30:$M$30</c:f>
+              <c:f>Table!$B$30:$N$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>352</c:v>
                 </c:pt>
@@ -2382,10 +2469,10 @@
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2406,6 +2493,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2438,9 +2528,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2451,10 +2541,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2475,6 +2565,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2482,10 +2575,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$31:$M$31</c:f>
+              <c:f>Table!$B$31:$N$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>218</c:v>
                 </c:pt>
@@ -2496,10 +2589,10 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2520,6 +2613,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2552,9 +2648,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2565,10 +2661,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2589,6 +2685,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2596,10 +2695,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$32:$M$32</c:f>
+              <c:f>Table!$B$32:$N$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>759</c:v>
                 </c:pt>
@@ -2610,10 +2709,10 @@
                   <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2634,6 +2733,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2642,11 +2744,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="65598972"/>
-        <c:axId val="64186915"/>
+        <c:axId val="10903921"/>
+        <c:axId val="32351807"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65598972"/>
+        <c:axId val="10903921"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2677,7 +2779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="64186915"/>
+        <c:crossAx val="32351807"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2691,7 +2793,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64186915"/>
+        <c:axId val="32351807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +2833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65598972"/>
+        <c:crossAx val="10903921"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -2816,9 +2918,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2829,10 +2931,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2853,6 +2955,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2860,10 +2965,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$25:$M$25</c:f>
+              <c:f>Table!$B$25:$N$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>202786</c:v>
                 </c:pt>
@@ -2874,10 +2979,10 @@
                   <c:v>205418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>206164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>206770</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -2898,6 +3003,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -2930,9 +3038,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -2943,10 +3051,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -2967,6 +3075,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -2974,10 +3085,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$23:$M$23</c:f>
+              <c:f>Table!$B$23:$N$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3894</c:v>
                 </c:pt>
@@ -2988,10 +3099,10 @@
                   <c:v>3975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>3986</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3012,6 +3123,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3044,9 +3158,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3057,10 +3171,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3081,6 +3195,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3088,10 +3205,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$24:$M$24</c:f>
+              <c:f>Table!$B$24:$N$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>466</c:v>
                 </c:pt>
@@ -3102,10 +3219,10 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3126,6 +3243,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3158,9 +3278,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3171,10 +3291,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3195,6 +3315,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3202,10 +3325,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$22:$M$22</c:f>
+              <c:f>Table!$B$22:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>496</c:v>
                 </c:pt>
@@ -3216,10 +3339,10 @@
                   <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3240,6 +3363,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3248,11 +3374,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="74369432"/>
-        <c:axId val="88050359"/>
+        <c:axId val="12925425"/>
+        <c:axId val="51541894"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74369432"/>
+        <c:axId val="12925425"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="88050359"/>
+        <c:crossAx val="51541894"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3274,7 +3400,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88050359"/>
+        <c:axId val="51541894"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3315,7 +3441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74369432"/>
+        <c:crossAx val="12925425"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -3400,9 +3526,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3413,10 +3539,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3437,6 +3563,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3444,10 +3573,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$20:$M$20</c:f>
+              <c:f>Table!$B$20:$N$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>212356</c:v>
                 </c:pt>
@@ -3458,10 +3587,10 @@
                   <c:v>215414</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>216272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>216896</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3482,6 +3611,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3514,9 +3646,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3527,10 +3659,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3551,6 +3683,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3558,10 +3693,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$18:$M$18</c:f>
+              <c:f>Table!$B$18:$N$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3909</c:v>
                 </c:pt>
@@ -3572,10 +3707,10 @@
                   <c:v>4002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>4013</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3596,6 +3731,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3628,9 +3766,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3641,10 +3779,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3665,6 +3803,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3672,10 +3813,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$19:$M$19</c:f>
+              <c:f>Table!$B$19:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1444</c:v>
                 </c:pt>
@@ -3686,10 +3827,10 @@
                   <c:v>1443</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3710,6 +3851,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3742,9 +3886,9 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$B$1:$M$1</c:f>
+              <c:f>Table!$B$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
                 </c:pt>
@@ -3755,10 +3899,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v/>
@@ -3779,6 +3923,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -3786,10 +3933,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$B$17:$M$17</c:f>
+              <c:f>Table!$B$17:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1506</c:v>
                 </c:pt>
@@ -3800,10 +3947,10 @@
                   <c:v>1521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>NaN</c:v>
+                  <c:v>1529</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>NaN</c:v>
@@ -3824,6 +3971,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -3832,11 +3982,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="22335820"/>
-        <c:axId val="57651983"/>
+        <c:axId val="13284451"/>
+        <c:axId val="31333380"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="22335820"/>
+        <c:axId val="13284451"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3844,7 +3994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="57651983"/>
+        <c:crossAx val="31333380"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3858,7 +4008,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57651983"/>
+        <c:axId val="31333380"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3899,7 +4049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="22335820"/>
+        <c:crossAx val="13284451"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -3958,9 +4108,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Table!$A$1:$M$1</c:f>
+              <c:f>Table!$A$1:$N$1</c:f>
               <c:strCache>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>Release number</c:v>
                 </c:pt>
@@ -3974,10 +4124,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3998,6 +4148,9 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v/>
                 </c:pt>
               </c:strCache>
@@ -4005,10 +4158,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Table!$A$6:$M$6</c:f>
+              <c:f>Table!$A$6:$N$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>NaN</c:v>
                 </c:pt>
@@ -4022,10 +4175,10 @@
                   <c:v>18851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>NaN</c:v>
+                  <c:v>18980</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>19023</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -4046,6 +4199,9 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>NaN</c:v>
                 </c:pt>
               </c:numCache>
@@ -4053,11 +4209,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="31221351"/>
-        <c:axId val="61008655"/>
+        <c:axId val="59298324"/>
+        <c:axId val="80476416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31221351"/>
+        <c:axId val="59298324"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="61008655"/>
+        <c:crossAx val="80476416"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4102,7 +4258,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61008655"/>
+        <c:axId val="80476416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4143,7 +4299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31221351"/>
+        <c:crossAx val="59298324"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4176,13 +4332,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4190,8 +4346,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="168120"/>
-        <a:ext cx="11590200" cy="4040640"/>
+        <a:off x="165600" y="159480"/>
+        <a:ext cx="11590200" cy="3835080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4206,7 +4362,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4220,8 +4376,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4294440"/>
-        <a:ext cx="11638800" cy="3954600"/>
+        <a:off x="152280" y="4081320"/>
+        <a:ext cx="11638800" cy="3741120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4256,7 +4412,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="56160"/>
-        <a:ext cx="11962440" cy="4008240"/>
+        <a:ext cx="11962440" cy="3803760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4282,7 +4438,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>491760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4291,7 +4447,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11245320" cy="3856680"/>
+        <a:ext cx="11245320" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4306,13 +4462,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>522000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4320,8 +4476,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="4047120"/>
-        <a:ext cx="11249640" cy="3983400"/>
+        <a:off x="318600" y="3843000"/>
+        <a:ext cx="11249640" cy="3769560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4347,7 +4503,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>75600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4356,7 +4512,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="59400" y="51840"/>
-        <a:ext cx="10968480" cy="4074480"/>
+        <a:ext cx="10968480" cy="3861360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4374,10 +4530,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E1"/>
+      <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -4385,7 +4541,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4398,8 +4554,14 @@
       <c r="D1" s="1" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="2">
+      <c r="E1" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4412,13 +4574,18 @@
       <c r="D2" s="4" t="n">
         <v>41010</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>41100</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>41130</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="3">
+      <c r="J2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4431,8 +4598,14 @@
       <c r="D3" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="4">
+      <c r="E3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4445,8 +4618,14 @@
       <c r="D4" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
+      <c r="E4" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4459,9 +4638,15 @@
       <c r="D5" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+      <c r="E5" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4474,16 +4659,22 @@
       <c r="D6" s="0" t="n">
         <v>18851</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="7">
+      <c r="E6" s="0" t="n">
+        <v>18980</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>19023</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
+      <c r="H7" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="8">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -4496,9 +4687,15 @@
       <c r="D8" s="0" t="n">
         <v>4770</v>
       </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+      <c r="E8" s="0" t="n">
+        <v>4836</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>4863</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -4511,8 +4708,14 @@
       <c r="D9" s="0" t="n">
         <v>810</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="10">
+      <c r="E9" s="0" t="n">
+        <v>818</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -4525,8 +4728,14 @@
       <c r="D10" s="0" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="11">
+      <c r="E10" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -4539,8 +4748,14 @@
       <c r="D11" s="0" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
+      <c r="E11" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -4553,19 +4768,28 @@
       <c r="D12" s="0" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="13">
+      <c r="E12" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -4575,7 +4799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -4588,8 +4812,14 @@
       <c r="D17" s="0" t="n">
         <v>1521</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+      <c r="E17" s="0" t="n">
+        <v>1529</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -4602,8 +4832,14 @@
       <c r="D18" s="0" t="n">
         <v>4002</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="19">
+      <c r="E18" s="0" t="n">
+        <v>4013</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -4615,6 +4851,12 @@
       </c>
       <c r="D19" s="0" t="n">
         <v>1443</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1442</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
@@ -4630,13 +4872,19 @@
       <c r="D20" s="0" t="n">
         <v>215414</v>
       </c>
+      <c r="E20" s="0" t="n">
+        <v>216272</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>216896</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="22">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4649,8 +4897,14 @@
       <c r="D22" s="0" t="n">
         <v>502</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="23">
+      <c r="E22" s="0" t="n">
+        <v>503</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="23">
       <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
@@ -4663,8 +4917,14 @@
       <c r="D23" s="0" t="n">
         <v>3975</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="24">
+      <c r="E23" s="0" t="n">
+        <v>3986</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3985</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="24">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
@@ -4675,6 +4935,12 @@
         <v>466</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>466</v>
       </c>
     </row>
@@ -4691,13 +4957,19 @@
       <c r="D25" s="0" t="n">
         <v>205418</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="26">
+      <c r="E25" s="0" t="n">
+        <v>206164</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>206770</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="27">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -4710,8 +4982,14 @@
       <c r="D27" s="0" t="n">
         <v>3392</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="28">
+      <c r="E27" s="0" t="n">
+        <v>3389</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="28">
       <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
@@ -4724,8 +5002,14 @@
       <c r="D28" s="0" t="n">
         <v>56</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="29">
+      <c r="E28" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="29">
       <c r="A29" s="6" t="s">
         <v>24</v>
       </c>
@@ -4738,8 +5022,14 @@
       <c r="D29" s="0" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="30">
+      <c r="E29" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="30">
       <c r="A30" s="6" t="s">
         <v>25</v>
       </c>
@@ -4752,8 +5042,14 @@
       <c r="D30" s="0" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="31">
+      <c r="E30" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="31">
       <c r="A31" s="6" t="s">
         <v>26</v>
       </c>
@@ -4766,8 +5062,14 @@
       <c r="D31" s="0" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="32">
+      <c r="E31" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="32">
       <c r="A32" s="6" t="s">
         <v>27</v>
       </c>
@@ -4780,13 +5082,19 @@
       <c r="D32" s="0" t="n">
         <v>753</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="33">
+      <c r="E32" s="0" t="n">
+        <v>743</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>742</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="34">
       <c r="A34" s="6" t="s">
         <v>22</v>
       </c>
@@ -4799,8 +5107,14 @@
       <c r="D34" s="0" t="n">
         <v>3223</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="35">
+      <c r="E34" s="0" t="n">
+        <v>3220</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="35">
       <c r="A35" s="6" t="s">
         <v>23</v>
       </c>
@@ -4813,8 +5127,14 @@
       <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="36">
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="36">
       <c r="A36" s="6" t="s">
         <v>24</v>
       </c>
@@ -4827,8 +5147,14 @@
       <c r="D36" s="0" t="n">
         <v>337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="37">
+      <c r="E36" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="37">
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
@@ -4841,8 +5167,14 @@
       <c r="D37" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="38">
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="38">
       <c r="A38" s="6" t="s">
         <v>26</v>
       </c>
@@ -4855,8 +5187,14 @@
       <c r="D38" s="0" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="39">
+      <c r="E38" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="39">
       <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
@@ -4869,22 +5207,28 @@
       <c r="D39" s="0" t="n">
         <v>692</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="40">
+      <c r="E39" s="0" t="n">
+        <v>682</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>681</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="43" s="6">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="43" s="6">
       <c r="A43" s="6" t="s">
         <v>30</v>
       </c>
@@ -4902,11 +5246,11 @@
       </c>
       <c r="E43" s="6" t="n">
         <f aca="false">SUM(E8:E9)</f>
-        <v>0</v>
+        <v>5654</v>
       </c>
       <c r="F43" s="6" t="n">
         <f aca="false">SUM(F8:F9)</f>
-        <v>0</v>
+        <v>5683</v>
       </c>
       <c r="G43" s="6" t="n">
         <f aca="false">SUM(G8:G9)</f>
@@ -4936,8 +5280,12 @@
         <f aca="false">SUM(M8:M9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="44" s="6">
+      <c r="N43" s="6" t="n">
+        <f aca="false">SUM(N8:N9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="44" s="6">
       <c r="A44" s="6" t="s">
         <v>31</v>
       </c>
@@ -4955,11 +5303,11 @@
       </c>
       <c r="E44" s="6" t="n">
         <f aca="false">SUM(E10:E11)</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="F44" s="6" t="n">
         <f aca="false">SUM(F10:F11)</f>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="G44" s="6" t="n">
         <f aca="false">SUM(G10:G11)</f>
@@ -4989,8 +5337,12 @@
         <f aca="false">SUM(M10:M11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="45" s="6">
+      <c r="N44" s="6" t="n">
+        <f aca="false">SUM(N10:N11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="45" s="6">
       <c r="A45" s="6" t="s">
         <v>32</v>
       </c>
@@ -5008,11 +5360,11 @@
       </c>
       <c r="E45" s="6" t="n">
         <f aca="false">E12</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F45" s="6" t="n">
         <f aca="false">F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6" t="n">
         <f aca="false">G12</f>
@@ -5040,6 +5392,10 @@
       </c>
       <c r="M45" s="6" t="n">
         <f aca="false">M12</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <f aca="false">N12</f>
         <v>0</v>
       </c>
     </row>
@@ -5072,16 +5428,16 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
       <c r="C1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
       <c r="C2" s="1"/>
       <c r="H2" s="7"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
       <c r="C3" s="1"/>
       <c r="G3" s="7"/>
       <c r="H3" s="5"/>
@@ -5091,7 +5447,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
       <c r="C4" s="1"/>
       <c r="G4" s="7"/>
       <c r="H4" s="5"/>
@@ -5101,7 +5457,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
       <c r="D5" s="7"/>
       <c r="E5" s="5"/>
       <c r="G5" s="7"/>
@@ -5112,7 +5468,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -5126,7 +5482,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -5142,7 +5498,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="8">
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -5158,7 +5514,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="9">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -5175,7 +5531,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -5190,7 +5546,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="11">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
       <c r="G11" s="7"/>
@@ -5204,7 +5560,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
       <c r="C12" s="1"/>
       <c r="D12" s="5"/>
       <c r="G12" s="7"/>
@@ -5219,7 +5575,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
       <c r="C13" s="1"/>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
@@ -5228,33 +5584,33 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
       <c r="C14" s="1"/>
       <c r="J14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
       <c r="C15" s="1"/>
       <c r="J15" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="16">
       <c r="C16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
       <c r="C17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
       <c r="C18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
       <c r="C19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="20">
       <c r="C20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="21">
       <c r="C21" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
@@ -5293,7 +5649,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.28627450980392"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -5323,7 +5679,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.15686274509804"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.25" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
       <c r="F1" s="5"/>

--- a/src/site/resources/statistics/intenzStats-2012.xlsx
+++ b/src/site/resources/statistics/intenzStats-2012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="453" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="364" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
@@ -129,8 +129,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="YYYY\-MM\-DD" numFmtId="166"/>
+    <numFmt formatCode="YYYY\-MM\-DD" numFmtId="165"/>
+    <numFmt formatCode="DD/MM/YY" numFmtId="166"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -296,12 +296,11 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -413,7 +412,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$8:$A$8</c:f>
+              <c:f>Table!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -453,7 +452,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -501,7 +500,7 @@
                   <c:v>4863</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>4866</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -533,7 +532,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$9:$A$9</c:f>
+              <c:f>Table!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -573,7 +572,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -621,7 +620,7 @@
                   <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -653,7 +652,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$10:$A$10</c:f>
+              <c:f>Table!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,7 +692,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -741,7 +740,7 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -773,7 +772,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$11:$A$11</c:f>
+              <c:f>Table!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -813,7 +812,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -861,7 +860,7 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -893,7 +892,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$12:$A$12</c:f>
+              <c:f>Table!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -933,7 +932,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1013,7 +1012,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$13:$A$13</c:f>
+              <c:f>Table!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1053,7 +1052,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1133,7 +1132,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$14:$A$14</c:f>
+              <c:f>Table!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1173,7 +1172,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1221,7 +1220,7 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -1253,7 +1252,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$15:$A$15</c:f>
+              <c:f>Table!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1293,7 +1292,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1370,11 +1369,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="93012776"/>
-        <c:axId val="45114863"/>
+        <c:axId val="38510873"/>
+        <c:axId val="69437030"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93012776"/>
+        <c:axId val="38510873"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1399,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="45114863"/>
+        <c:crossAx val="69437030"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1414,7 +1413,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45114863"/>
+        <c:axId val="69437030"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1455,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93012776"/>
+        <c:crossAx val="38510873"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -1519,7 +1518,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$43:$A$43</c:f>
+              <c:f>Table!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1559,7 +1558,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1607,7 +1606,7 @@
                   <c:v>5683</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5686</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1639,7 +1638,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$44:$A$44</c:f>
+              <c:f>Table!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1679,7 +1678,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1727,7 +1726,7 @@
                   <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1759,7 +1758,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$45:$A$45</c:f>
+              <c:f>Table!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1799,7 +1798,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -1847,7 +1846,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1876,11 +1875,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="69732206"/>
-        <c:axId val="40675292"/>
+        <c:axId val="78130265"/>
+        <c:axId val="43159937"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69732206"/>
+        <c:axId val="78130265"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +1905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="40675292"/>
+        <c:crossAx val="43159937"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1920,7 +1919,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40675292"/>
+        <c:axId val="43159937"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -1961,7 +1960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69732206"/>
+        <c:crossAx val="78130265"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -2027,7 +2026,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$27:$A$27</c:f>
+              <c:f>Table!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2067,7 +2066,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2115,7 +2114,7 @@
                   <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2147,7 +2146,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$28:$A$28</c:f>
+              <c:f>Table!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2187,7 +2186,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2235,7 +2234,7 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2267,7 +2266,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$29:$A$29</c:f>
+              <c:f>Table!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2307,7 +2306,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2355,7 +2354,7 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2387,7 +2386,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$30:$A$30</c:f>
+              <c:f>Table!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2427,7 +2426,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2475,7 +2474,7 @@
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2507,7 +2506,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$31:$A$31</c:f>
+              <c:f>Table!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2547,7 +2546,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2595,7 +2594,7 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2627,7 +2626,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$32:$A$32</c:f>
+              <c:f>Table!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2667,7 +2666,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2715,7 +2714,7 @@
                   <c:v>742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -2744,11 +2743,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="10903921"/>
-        <c:axId val="32351807"/>
+        <c:axId val="27680918"/>
+        <c:axId val="97025473"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="10903921"/>
+        <c:axId val="27680918"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2778,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="32351807"/>
+        <c:crossAx val="97025473"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2793,7 +2792,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32351807"/>
+        <c:axId val="97025473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10903921"/>
+        <c:crossAx val="27680918"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -2897,7 +2896,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$25:$A$25</c:f>
+              <c:f>Table!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2937,7 +2936,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -2985,7 +2984,7 @@
                   <c:v>206770</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>207555</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3017,7 +3016,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$23:$A$23</c:f>
+              <c:f>Table!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3057,7 +3056,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3105,7 +3104,7 @@
                   <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>3990</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3137,7 +3136,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$24:$A$24</c:f>
+              <c:f>Table!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3177,7 +3176,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3225,7 +3224,7 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3257,7 +3256,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$22:$A$22</c:f>
+              <c:f>Table!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3297,7 +3296,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3345,7 +3344,7 @@
                   <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3374,11 +3373,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="12925425"/>
-        <c:axId val="51541894"/>
+        <c:axId val="63525927"/>
+        <c:axId val="94165507"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12925425"/>
+        <c:axId val="63525927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="51541894"/>
+        <c:crossAx val="94165507"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3400,7 +3399,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51541894"/>
+        <c:axId val="94165507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3441,7 +3440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12925425"/>
+        <c:crossAx val="63525927"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -3505,7 +3504,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$20:$A$20</c:f>
+              <c:f>Table!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3545,7 +3544,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3593,7 +3592,7 @@
                   <c:v>216896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>218027</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3625,7 +3624,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$18:$A$18</c:f>
+              <c:f>Table!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3665,7 +3664,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3713,7 +3712,7 @@
                   <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>4017</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3745,7 +3744,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$19:$A$19</c:f>
+              <c:f>Table!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3785,7 +3784,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3833,7 +3832,7 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3865,7 +3864,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$17:$A$17</c:f>
+              <c:f>Table!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3905,7 +3904,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v/>
@@ -3953,7 +3952,7 @@
                   <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>NaN</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>NaN</c:v>
@@ -3982,11 +3981,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="13284451"/>
-        <c:axId val="31333380"/>
+        <c:axId val="108801"/>
+        <c:axId val="46787517"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="13284451"/>
+        <c:axId val="108801"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +3993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="31333380"/>
+        <c:crossAx val="46787517"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4008,7 +4007,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="31333380"/>
+        <c:axId val="46787517"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4049,7 +4048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13284451"/>
+        <c:crossAx val="108801"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4130,7 +4129,7 @@
                   <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -4181,7 +4180,7 @@
                   <c:v>19023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>19030</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -4209,11 +4208,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="59298324"/>
-        <c:axId val="80476416"/>
+        <c:axId val="64740573"/>
+        <c:axId val="86254139"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59298324"/>
+        <c:axId val="64740573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4243,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="80476416"/>
+        <c:crossAx val="86254139"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4258,7 +4257,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80476416"/>
+        <c:axId val="86254139"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4299,7 +4298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59298324"/>
+        <c:crossAx val="64740573"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4332,13 +4331,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4346,8 +4345,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="159480"/>
-        <a:ext cx="11590200" cy="3835080"/>
+        <a:off x="165600" y="154080"/>
+        <a:ext cx="11590200" cy="3706560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4376,8 +4375,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4081320"/>
-        <a:ext cx="11638800" cy="3741120"/>
+        <a:off x="152280" y="3946320"/>
+        <a:ext cx="11638800" cy="3603600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4412,7 +4411,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="56160"/>
-        <a:ext cx="11962440" cy="3803760"/>
+        <a:ext cx="11962440" cy="3672360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4436,9 +4435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>491760</xdr:colOff>
+      <xdr:colOff>495720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4447,7 +4446,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11245320" cy="3661200"/>
+        <a:ext cx="11249280" cy="3535200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4466,9 +4465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4476,8 +4475,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3843000"/>
-        <a:ext cx="11249640" cy="3769560"/>
+        <a:off x="318600" y="3711600"/>
+        <a:ext cx="11253600" cy="3630240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4503,7 +4502,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>75600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4512,7 +4511,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="59400" y="51840"/>
-        <a:ext cx="10968480" cy="3861360"/>
+        <a:ext cx="10968480" cy="3723120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4533,7 +4532,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G1" activeCellId="0" pane="topLeft" sqref="G1"/>
+      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -4541,7 +4540,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4560,32 +4559,37 @@
       <c r="F1" s="1" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
+      <c r="G1" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>40927</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>40975</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="2" t="n">
         <v>41010</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="2" t="n">
         <v>41100</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="2" t="n">
         <v>41130</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
+      <c r="G2" s="2" t="n">
+        <v>41159</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4604,8 +4608,11 @@
       <c r="F3" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
+      <c r="G3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4624,8 +4631,11 @@
       <c r="F4" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
+      <c r="G4" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4644,13 +4654,16 @@
       <c r="F5" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
+      <c r="G5" s="0" t="n">
+        <v>285</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="5" t="n">
         <v>18771</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -4665,20 +4678,23 @@
       <c r="F6" s="0" t="n">
         <v>19023</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
+      <c r="G6" s="0" t="n">
+        <v>19030</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="8">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="5"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="5" t="n">
         <v>4731</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -4693,13 +4709,16 @@
       <c r="F8" s="0" t="n">
         <v>4863</v>
       </c>
-      <c r="H8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
-      <c r="A9" s="6" t="s">
+      <c r="G8" s="0" t="n">
+        <v>4866</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="5" t="n">
         <v>805</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -4714,12 +4733,15 @@
       <c r="F9" s="0" t="n">
         <v>820</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="0" t="n">
+        <v>820</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="5" t="n">
         <v>71</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -4734,12 +4756,15 @@
       <c r="F10" s="0" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
-      <c r="A11" s="6" t="s">
+      <c r="G10" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="5" t="n">
         <v>79</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -4754,12 +4779,15 @@
       <c r="F11" s="0" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
-      <c r="A12" s="6" t="s">
+      <c r="G11" s="0" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -4775,32 +4803,35 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
-      <c r="A13" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
-      <c r="A14" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
-      <c r="A15" s="6" t="s">
+      <c r="G14" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
-      <c r="A17" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -4818,9 +4849,12 @@
       <c r="F17" s="0" t="n">
         <v>1548</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
-      <c r="A18" s="6" t="s">
+      <c r="G17" s="0" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -4838,9 +4872,12 @@
       <c r="F18" s="0" t="n">
         <v>4012</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
-      <c r="A19" s="6" t="s">
+      <c r="G18" s="0" t="n">
+        <v>4017</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -4858,9 +4895,12 @@
       <c r="F19" s="0" t="n">
         <v>1442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
-      <c r="A20" s="6" t="s">
+      <c r="G19" s="0" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="20">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -4878,14 +4918,17 @@
       <c r="F20" s="0" t="n">
         <v>216896</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="G20" s="0" t="n">
+        <v>218027</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="22">
-      <c r="A22" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="A22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -4903,9 +4946,12 @@
       <c r="F22" s="0" t="n">
         <v>508</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="23">
-      <c r="A23" s="6" t="s">
+      <c r="G22" s="0" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -4923,9 +4969,12 @@
       <c r="F23" s="0" t="n">
         <v>3985</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="24">
-      <c r="A24" s="6" t="s">
+      <c r="G23" s="0" t="n">
+        <v>3990</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -4943,9 +4992,12 @@
       <c r="F24" s="0" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
-      <c r="A25" s="6" t="s">
+      <c r="G24" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="25">
+      <c r="A25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -4963,14 +5015,17 @@
       <c r="F25" s="0" t="n">
         <v>206770</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="26">
+      <c r="G25" s="0" t="n">
+        <v>207555</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="27">
-      <c r="A27" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -4988,9 +5043,12 @@
       <c r="F27" s="0" t="n">
         <v>3388</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="28">
-      <c r="A28" s="6" t="s">
+      <c r="G27" s="0" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -5008,9 +5066,12 @@
       <c r="F28" s="0" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="29">
-      <c r="A29" s="6" t="s">
+      <c r="G28" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+      <c r="A29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -5028,9 +5089,12 @@
       <c r="F29" s="0" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="30">
-      <c r="A30" s="6" t="s">
+      <c r="G29" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+      <c r="A30" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -5048,9 +5112,12 @@
       <c r="F30" s="0" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="31">
-      <c r="A31" s="6" t="s">
+      <c r="G30" s="0" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+      <c r="A31" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -5068,9 +5135,12 @@
       <c r="F31" s="0" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="32">
-      <c r="A32" s="6" t="s">
+      <c r="G31" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+      <c r="A32" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -5088,14 +5158,17 @@
       <c r="F32" s="0" t="n">
         <v>742</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="33">
+      <c r="G32" s="0" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="34">
-      <c r="A34" s="6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+      <c r="A34" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -5113,9 +5186,12 @@
       <c r="F34" s="0" t="n">
         <v>3219</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="35">
-      <c r="A35" s="6" t="s">
+      <c r="G34" s="0" t="n">
+        <v>3219</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+      <c r="A35" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -5133,9 +5209,12 @@
       <c r="F35" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="36">
-      <c r="A36" s="6" t="s">
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+      <c r="A36" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -5153,12 +5232,15 @@
       <c r="F36" s="0" t="n">
         <v>337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="37">
-      <c r="A37" s="6" t="s">
+      <c r="G36" s="0" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+      <c r="A37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="6" t="n">
+      <c r="B37" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -5173,12 +5255,15 @@
       <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="38">
-      <c r="A38" s="6" t="s">
+      <c r="G37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="A38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="6" t="n">
+      <c r="B38" s="5" t="n">
         <v>79</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -5193,12 +5278,15 @@
       <c r="F38" s="0" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="39">
-      <c r="A39" s="6" t="s">
+      <c r="G38" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="6" t="n">
+      <c r="B39" s="5" t="n">
         <v>697</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -5213,188 +5301,191 @@
       <c r="F39" s="0" t="n">
         <v>681</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="40">
+      <c r="G39" s="0" t="n">
+        <v>679</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="43" s="6">
-      <c r="A43" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43" s="5">
+      <c r="A43" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="6" t="n">
+      <c r="B43" s="5" t="n">
         <f aca="false">SUM(B8:B9)</f>
         <v>5536</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="5" t="n">
         <f aca="false">SUM(C8:C9)</f>
         <v>5536</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="5" t="n">
         <f aca="false">SUM(D8:D9)</f>
         <v>5580</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="5" t="n">
         <f aca="false">SUM(E8:E9)</f>
         <v>5654</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="5" t="n">
         <f aca="false">SUM(F8:F9)</f>
         <v>5683</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="5" t="n">
         <f aca="false">SUM(G8:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="6" t="n">
+        <v>5686</v>
+      </c>
+      <c r="H43" s="5" t="n">
         <f aca="false">SUM(H8:H9)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="6" t="n">
+      <c r="I43" s="5" t="n">
         <f aca="false">SUM(I8:I9)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="6" t="n">
+      <c r="J43" s="5" t="n">
         <f aca="false">SUM(J8:J9)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="6" t="n">
+      <c r="K43" s="5" t="n">
         <f aca="false">SUM(K8:K9)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="6" t="n">
+      <c r="L43" s="5" t="n">
         <f aca="false">SUM(L8:L9)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="5" t="n">
         <f aca="false">SUM(M8:M9)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="6" t="n">
+      <c r="N43" s="5" t="n">
         <f aca="false">SUM(N8:N9)</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="44" s="6">
-      <c r="A44" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44" s="5">
+      <c r="A44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="6" t="n">
+      <c r="B44" s="5" t="n">
         <f aca="false">SUM(B10:B11)</f>
         <v>150</v>
       </c>
-      <c r="C44" s="6" t="n">
+      <c r="C44" s="5" t="n">
         <f aca="false">SUM(C10:C11)</f>
         <v>161</v>
       </c>
-      <c r="D44" s="6" t="n">
+      <c r="D44" s="5" t="n">
         <f aca="false">SUM(D10:D11)</f>
         <v>164</v>
       </c>
-      <c r="E44" s="6" t="n">
+      <c r="E44" s="5" t="n">
         <f aca="false">SUM(E10:E11)</f>
         <v>171</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="5" t="n">
         <f aca="false">SUM(F10:F11)</f>
         <v>171</v>
       </c>
-      <c r="G44" s="6" t="n">
+      <c r="G44" s="5" t="n">
         <f aca="false">SUM(G10:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="6" t="n">
+        <v>181</v>
+      </c>
+      <c r="H44" s="5" t="n">
         <f aca="false">SUM(H10:H11)</f>
         <v>0</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="5" t="n">
         <f aca="false">SUM(I10:I11)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="5" t="n">
         <f aca="false">SUM(J10:J11)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="6" t="n">
+      <c r="K44" s="5" t="n">
         <f aca="false">SUM(K10:K11)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="6" t="n">
+      <c r="L44" s="5" t="n">
         <f aca="false">SUM(L10:L11)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="5" t="n">
         <f aca="false">SUM(M10:M11)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="6" t="n">
+      <c r="N44" s="5" t="n">
         <f aca="false">SUM(N10:N11)</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="45" s="6">
-      <c r="A45" s="6" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45" s="5">
+      <c r="A45" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="6" t="n">
+      <c r="B45" s="5" t="n">
         <f aca="false">B12</f>
         <v>1</v>
       </c>
-      <c r="C45" s="6" t="n">
+      <c r="C45" s="5" t="n">
         <f aca="false">C12</f>
         <v>61</v>
       </c>
-      <c r="D45" s="6" t="n">
+      <c r="D45" s="5" t="n">
         <f aca="false">D12</f>
         <v>60</v>
       </c>
-      <c r="E45" s="6" t="n">
+      <c r="E45" s="5" t="n">
         <f aca="false">E12</f>
         <v>30</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="5" t="n">
         <f aca="false">F12</f>
         <v>2</v>
       </c>
-      <c r="G45" s="6" t="n">
-        <f aca="false">G12</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="6" t="n">
+      <c r="G45" s="5" t="n">
+        <f aca="false">G14</f>
+        <v>99</v>
+      </c>
+      <c r="H45" s="5" t="n">
         <f aca="false">H12</f>
         <v>0</v>
       </c>
-      <c r="I45" s="6" t="n">
+      <c r="I45" s="5" t="n">
         <f aca="false">I12</f>
         <v>0</v>
       </c>
-      <c r="J45" s="6" t="n">
+      <c r="J45" s="5" t="n">
         <f aca="false">J12</f>
         <v>0</v>
       </c>
-      <c r="K45" s="6" t="n">
+      <c r="K45" s="5" t="n">
         <f aca="false">K12</f>
         <v>0</v>
       </c>
-      <c r="L45" s="6" t="n">
+      <c r="L45" s="5" t="n">
         <f aca="false">L12</f>
         <v>0</v>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="5" t="n">
         <f aca="false">M12</f>
         <v>0</v>
       </c>
-      <c r="N45" s="6" t="n">
+      <c r="N45" s="5" t="n">
         <f aca="false">N12</f>
         <v>0</v>
       </c>
@@ -5402,7 +5493,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -5428,203 +5519,203 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="C1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="C2" s="1"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
+      <c r="H2" s="6"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="C3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
+      <c r="G3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="C4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
-      <c r="D5" s="7"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="8">
-      <c r="D8" s="5"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
-      <c r="D9" s="5"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
-      <c r="D10" s="5"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
-      <c r="D11" s="5"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="D5" s="6"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="D9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="D10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="C12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
+      <c r="D12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="C13" s="1"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="C14" s="1"/>
-      <c r="J14" s="5"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
+      <c r="J14" s="4"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="C15" s="1"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="16">
+      <c r="J15" s="4"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="C16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="C17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="C18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="C19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="C20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="C21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="22">
       <c r="C22" s="1"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5" t="s">
+      <c r="M22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5649,13 +5740,13 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.28627450980392"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5679,17 +5770,17 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.15686274509804"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5715,7 +5806,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/src/site/resources/statistics/intenzStats-2012.xlsx
+++ b/src/site/resources/statistics/intenzStats-2012.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="364" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="363" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
@@ -127,10 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="YYYY\-MM\-DD" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="166"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -296,11 +295,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
@@ -380,7 +378,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -412,7 +410,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$8</c:f>
+              <c:f>Table!$A$8:$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -455,7 +453,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -503,7 +501,7 @@
                   <c:v>4866</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>4929</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -532,7 +530,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$9</c:f>
+              <c:f>Table!$A$9:$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -575,7 +573,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -623,7 +621,7 @@
                   <c:v>820</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -652,7 +650,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$10</c:f>
+              <c:f>Table!$A$10:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -695,7 +693,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -743,7 +741,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -772,7 +770,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$11</c:f>
+              <c:f>Table!$A$11:$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -815,7 +813,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -863,7 +861,7 @@
                   <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -892,7 +890,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$12</c:f>
+              <c:f>Table!$A$12:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +933,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1012,7 +1010,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$13</c:f>
+              <c:f>Table!$A$13:$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1055,7 +1053,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1132,7 +1130,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$14</c:f>
+              <c:f>Table!$A$14:$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1175,7 +1173,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1223,7 +1221,7 @@
                   <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -1252,7 +1250,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$15</c:f>
+              <c:f>Table!$A$15:$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1293,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1369,11 +1367,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="38510873"/>
-        <c:axId val="69437030"/>
+        <c:axId val="54917625"/>
+        <c:axId val="48207922"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="38510873"/>
+        <c:axId val="54917625"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1399,7 +1397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="69437030"/>
+        <c:crossAx val="48207922"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1413,7 +1411,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69437030"/>
+        <c:axId val="48207922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1454,7 +1452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38510873"/>
+        <c:crossAx val="54917625"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -1486,7 +1484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1518,7 +1516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$43</c:f>
+              <c:f>Table!$A$43:$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1561,7 +1559,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1609,7 +1607,7 @@
                   <c:v>5686</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5754</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1638,7 +1636,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$44</c:f>
+              <c:f>Table!$A$44:$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1681,7 +1679,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1729,7 +1727,7 @@
                   <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1758,7 +1756,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$45</c:f>
+              <c:f>Table!$A$45:$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1801,7 +1799,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -1846,7 +1844,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1875,11 +1873,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="78130265"/>
-        <c:axId val="43159937"/>
+        <c:axId val="47379245"/>
+        <c:axId val="38907458"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78130265"/>
+        <c:axId val="47379245"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,7 +1903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="43159937"/>
+        <c:crossAx val="38907458"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1919,7 +1917,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43159937"/>
+        <c:axId val="38907458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -1960,7 +1958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78130265"/>
+        <c:crossAx val="47379245"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -1994,7 +1992,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2026,7 +2024,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$27</c:f>
+              <c:f>Table!$A$27:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2069,7 +2067,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2117,7 +2115,7 @@
                   <c:v>3388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>3383</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2146,7 +2144,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$28</c:f>
+              <c:f>Table!$A$28:$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2189,7 +2187,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2237,7 +2235,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2266,7 +2264,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$29</c:f>
+              <c:f>Table!$A$29:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2309,7 +2307,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2357,7 +2355,7 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2386,7 +2384,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$30</c:f>
+              <c:f>Table!$A$30:$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2429,7 +2427,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2477,7 +2475,7 @@
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2506,7 +2504,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$31</c:f>
+              <c:f>Table!$A$31:$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2549,7 +2547,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2597,7 +2595,7 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2626,7 +2624,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$32</c:f>
+              <c:f>Table!$A$32:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2669,7 +2667,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2717,7 +2715,7 @@
                   <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -2743,11 +2741,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="27680918"/>
-        <c:axId val="97025473"/>
+        <c:axId val="787028"/>
+        <c:axId val="44053136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27680918"/>
+        <c:axId val="787028"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2778,7 +2776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="97025473"/>
+        <c:crossAx val="44053136"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2792,7 +2790,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97025473"/>
+        <c:axId val="44053136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +2830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27680918"/>
+        <c:crossAx val="787028"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -2864,7 +2862,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2896,7 +2894,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$25</c:f>
+              <c:f>Table!$A$25:$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2939,7 +2937,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -2987,7 +2985,7 @@
                   <c:v>207555</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>207470</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3016,7 +3014,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$23</c:f>
+              <c:f>Table!$A$23:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3059,7 +3057,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3107,7 +3105,7 @@
                   <c:v>3990</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3136,7 +3134,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$24</c:f>
+              <c:f>Table!$A$24:$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3179,7 +3177,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3227,7 +3225,7 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3256,7 +3254,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$22</c:f>
+              <c:f>Table!$A$22:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3299,7 +3297,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3347,7 +3345,7 @@
                   <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3373,11 +3371,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="63525927"/>
-        <c:axId val="94165507"/>
+        <c:axId val="91872716"/>
+        <c:axId val="56974197"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63525927"/>
+        <c:axId val="91872716"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,7 +3383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="94165507"/>
+        <c:crossAx val="56974197"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3399,7 +3397,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94165507"/>
+        <c:axId val="56974197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3440,7 +3438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63525927"/>
+        <c:crossAx val="91872716"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -3472,7 +3470,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3504,7 +3502,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$20</c:f>
+              <c:f>Table!$A$20:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3547,7 +3545,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3595,7 +3593,7 @@
                   <c:v>218027</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>217964</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3624,7 +3622,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$18</c:f>
+              <c:f>Table!$A$18:$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3667,7 +3665,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3715,7 +3713,7 @@
                   <c:v>4017</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3744,7 +3742,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$19</c:f>
+              <c:f>Table!$A$19:$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3787,7 +3785,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3835,7 +3833,7 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3864,7 +3862,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Table!$A$17</c:f>
+              <c:f>Table!$A$17:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3907,7 +3905,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v/>
@@ -3955,7 +3953,7 @@
                   <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>NaN</c:v>
+                  <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NaN</c:v>
@@ -3981,11 +3979,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="108801"/>
-        <c:axId val="46787517"/>
+        <c:axId val="39992197"/>
+        <c:axId val="92735023"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108801"/>
+        <c:axId val="39992197"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3993,7 +3991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="46787517"/>
+        <c:crossAx val="92735023"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4007,7 +4005,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46787517"/>
+        <c:axId val="92735023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4048,7 +4046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108801"/>
+        <c:crossAx val="39992197"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4080,7 +4078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4132,7 +4130,7 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v/>
@@ -4183,7 +4181,7 @@
                   <c:v>19030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>19217</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>NaN</c:v>
@@ -4208,11 +4206,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="64740573"/>
-        <c:axId val="86254139"/>
+        <c:axId val="8985573"/>
+        <c:axId val="93159410"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64740573"/>
+        <c:axId val="8985573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4243,7 +4241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="86254139"/>
+        <c:crossAx val="93159410"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4257,7 +4255,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86254139"/>
+        <c:axId val="93159410"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4298,7 +4296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64740573"/>
+        <c:crossAx val="8985573"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4331,13 +4329,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4345,8 +4343,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="154080"/>
-        <a:ext cx="11590200" cy="3706560"/>
+        <a:off x="165600" y="160200"/>
+        <a:ext cx="11590200" cy="3836880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4361,7 +4359,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4375,8 +4373,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="3946320"/>
-        <a:ext cx="11638800" cy="3603600"/>
+        <a:off x="152280" y="4081680"/>
+        <a:ext cx="11638800" cy="3740760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4411,7 +4409,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="56160"/>
-        <a:ext cx="11962440" cy="3672360"/>
+        <a:ext cx="11962440" cy="3803760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4435,9 +4433,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495720</xdr:colOff>
+      <xdr:colOff>491760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4446,7 +4444,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="292680" y="19440"/>
-        <a:ext cx="11249280" cy="3535200"/>
+        <a:ext cx="11245320" cy="3661200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4461,13 +4459,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4475,8 +4473,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3711600"/>
-        <a:ext cx="11253600" cy="3630240"/>
+        <a:off x="318600" y="3843360"/>
+        <a:ext cx="11249640" cy="3769200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4502,7 +4500,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>75600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4511,7 +4509,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="59400" y="51840"/>
-        <a:ext cx="10968480" cy="3723120"/>
+        <a:ext cx="10968480" cy="3861360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4532,7 +4530,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H1" activeCellId="0" pane="topLeft" sqref="H1"/>
+      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -4540,7 +4538,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4862745098039"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4562,8 +4560,11 @@
       <c r="G1" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="H1" s="1" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4585,11 +4586,17 @@
       <c r="G2" s="2" t="n">
         <v>41159</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="H2" s="2" t="n">
+        <v>41190</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4611,8 +4618,11 @@
       <c r="G3" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="H3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4634,8 +4644,11 @@
       <c r="G4" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="H4" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4657,13 +4670,15 @@
       <c r="G5" s="0" t="n">
         <v>285</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="H5" s="3" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>18771</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -4681,20 +4696,22 @@
       <c r="G6" s="0" t="n">
         <v>19030</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="H6" s="3" t="n">
+        <v>19217</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="5" t="s">
+      <c r="B7" s="4"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>4731</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -4712,13 +4729,15 @@
       <c r="G8" s="0" t="n">
         <v>4866</v>
       </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="3" t="n">
+        <v>4929</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>805</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -4736,12 +4755,15 @@
       <c r="G9" s="0" t="n">
         <v>820</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="A10" s="5" t="s">
+      <c r="H9" s="0" t="n">
+        <v>825</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>71</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -4759,12 +4781,15 @@
       <c r="G10" s="0" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>79</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -4782,12 +4807,15 @@
       <c r="G11" s="0" t="n">
         <v>101</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
-      <c r="A12" s="5" t="s">
+      <c r="H11" s="0" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -4803,35 +4831,38 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="A13" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="E13" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
-      <c r="A14" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>99</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="5" t="s">
+      <c r="H14" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
-      <c r="A17" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
@@ -4852,9 +4883,12 @@
       <c r="G17" s="0" t="n">
         <v>1548</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="A18" s="5" t="s">
+      <c r="H17" s="0" t="n">
+        <v>1548</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
@@ -4875,9 +4909,12 @@
       <c r="G18" s="0" t="n">
         <v>4017</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
-      <c r="A19" s="5" t="s">
+      <c r="H18" s="0" t="n">
+        <v>4012</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
@@ -4898,9 +4935,12 @@
       <c r="G19" s="0" t="n">
         <v>1442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="20">
-      <c r="A20" s="5" t="s">
+      <c r="H19" s="0" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
@@ -4921,14 +4961,17 @@
       <c r="G20" s="0" t="n">
         <v>218027</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+      <c r="H20" s="0" t="n">
+        <v>217964</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="A22" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="22">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="0" t="n">
@@ -4949,9 +4992,12 @@
       <c r="G22" s="0" t="n">
         <v>509</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="5" t="s">
+      <c r="H22" s="0" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="23">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="0" t="n">
@@ -4972,9 +5018,12 @@
       <c r="G23" s="0" t="n">
         <v>3990</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="5" t="s">
+      <c r="H23" s="0" t="n">
+        <v>3985</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="24">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="0" t="n">
@@ -4995,9 +5044,12 @@
       <c r="G24" s="0" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="25">
-      <c r="A25" s="5" t="s">
+      <c r="H24" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+      <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="0" t="n">
@@ -5018,14 +5070,17 @@
       <c r="G25" s="0" t="n">
         <v>207555</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+      <c r="H25" s="0" t="n">
+        <v>207470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
-      <c r="A27" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="27">
+      <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="0" t="n">
@@ -5046,9 +5101,12 @@
       <c r="G27" s="0" t="n">
         <v>3388</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
-      <c r="A28" s="5" t="s">
+      <c r="H27" s="0" t="n">
+        <v>3383</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="28">
+      <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="0" t="n">
@@ -5069,9 +5127,12 @@
       <c r="G28" s="0" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
-      <c r="A29" s="5" t="s">
+      <c r="H28" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="29">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="0" t="n">
@@ -5092,9 +5153,12 @@
       <c r="G29" s="0" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
-      <c r="A30" s="5" t="s">
+      <c r="H29" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="30">
+      <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="0" t="n">
@@ -5115,9 +5179,12 @@
       <c r="G30" s="0" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
-      <c r="A31" s="5" t="s">
+      <c r="H30" s="0" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="31">
+      <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="0" t="n">
@@ -5138,9 +5205,12 @@
       <c r="G31" s="0" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
-      <c r="A32" s="5" t="s">
+      <c r="H31" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="32">
+      <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="0" t="n">
@@ -5161,14 +5231,17 @@
       <c r="G32" s="0" t="n">
         <v>740</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+      <c r="H32" s="0" t="n">
+        <v>724</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
-      <c r="A34" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="34">
+      <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="0" t="n">
@@ -5189,9 +5262,12 @@
       <c r="G34" s="0" t="n">
         <v>3219</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
-      <c r="A35" s="5" t="s">
+      <c r="H34" s="0" t="n">
+        <v>3214</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="35">
+      <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="0" t="n">
@@ -5212,9 +5288,12 @@
       <c r="G35" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
-      <c r="A36" s="5" t="s">
+      <c r="H35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="36">
+      <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="0" t="n">
@@ -5235,12 +5314,15 @@
       <c r="G36" s="0" t="n">
         <v>337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
-      <c r="A37" s="5" t="s">
+      <c r="H36" s="0" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="37">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="4" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -5258,12 +5340,15 @@
       <c r="G37" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="A38" s="5" t="s">
+      <c r="H37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="38">
+      <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="4" t="n">
         <v>79</v>
       </c>
       <c r="C38" s="0" t="n">
@@ -5281,12 +5366,15 @@
       <c r="G38" s="0" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
-      <c r="A39" s="5" t="s">
+      <c r="H38" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="39">
+      <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="4" t="n">
         <v>697</v>
       </c>
       <c r="C39" s="0" t="n">
@@ -5304,188 +5392,191 @@
       <c r="G39" s="0" t="n">
         <v>679</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="H39" s="0" t="n">
+        <v>667</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="40">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="41">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="1"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43" s="5">
-      <c r="A43" s="5" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="43" s="4">
+      <c r="A43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="4" t="n">
         <f aca="false">SUM(B8:B9)</f>
         <v>5536</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="4" t="n">
         <f aca="false">SUM(C8:C9)</f>
         <v>5536</v>
       </c>
-      <c r="D43" s="5" t="n">
+      <c r="D43" s="4" t="n">
         <f aca="false">SUM(D8:D9)</f>
         <v>5580</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="4" t="n">
         <f aca="false">SUM(E8:E9)</f>
         <v>5654</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="4" t="n">
         <f aca="false">SUM(F8:F9)</f>
         <v>5683</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="4" t="n">
         <f aca="false">SUM(G8:G9)</f>
         <v>5686</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="4" t="n">
         <f aca="false">SUM(H8:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="5" t="n">
+        <v>5754</v>
+      </c>
+      <c r="I43" s="4" t="n">
         <f aca="false">SUM(I8:I9)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="4" t="n">
         <f aca="false">SUM(J8:J9)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="5" t="n">
+      <c r="K43" s="4" t="n">
         <f aca="false">SUM(K8:K9)</f>
         <v>0</v>
       </c>
-      <c r="L43" s="5" t="n">
+      <c r="L43" s="4" t="n">
         <f aca="false">SUM(L8:L9)</f>
         <v>0</v>
       </c>
-      <c r="M43" s="5" t="n">
+      <c r="M43" s="4" t="n">
         <f aca="false">SUM(M8:M9)</f>
         <v>0</v>
       </c>
-      <c r="N43" s="5" t="n">
+      <c r="N43" s="4" t="n">
         <f aca="false">SUM(N8:N9)</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44" s="5">
-      <c r="A44" s="5" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="44" s="4">
+      <c r="A44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B44" s="5" t="n">
+      <c r="B44" s="4" t="n">
         <f aca="false">SUM(B10:B11)</f>
         <v>150</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="4" t="n">
         <f aca="false">SUM(C10:C11)</f>
         <v>161</v>
       </c>
-      <c r="D44" s="5" t="n">
+      <c r="D44" s="4" t="n">
         <f aca="false">SUM(D10:D11)</f>
         <v>164</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="4" t="n">
         <f aca="false">SUM(E10:E11)</f>
         <v>171</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="4" t="n">
         <f aca="false">SUM(F10:F11)</f>
         <v>171</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="4" t="n">
         <f aca="false">SUM(G10:G11)</f>
         <v>181</v>
       </c>
-      <c r="H44" s="5" t="n">
+      <c r="H44" s="4" t="n">
         <f aca="false">SUM(H10:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="5" t="n">
+        <v>181</v>
+      </c>
+      <c r="I44" s="4" t="n">
         <f aca="false">SUM(I10:I11)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="4" t="n">
         <f aca="false">SUM(J10:J11)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="n">
+      <c r="K44" s="4" t="n">
         <f aca="false">SUM(K10:K11)</f>
         <v>0</v>
       </c>
-      <c r="L44" s="5" t="n">
+      <c r="L44" s="4" t="n">
         <f aca="false">SUM(L10:L11)</f>
         <v>0</v>
       </c>
-      <c r="M44" s="5" t="n">
+      <c r="M44" s="4" t="n">
         <f aca="false">SUM(M10:M11)</f>
         <v>0</v>
       </c>
-      <c r="N44" s="5" t="n">
+      <c r="N44" s="4" t="n">
         <f aca="false">SUM(N10:N11)</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45" s="5">
-      <c r="A45" s="5" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="45" s="4">
+      <c r="A45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="5" t="n">
+      <c r="B45" s="4" t="n">
         <f aca="false">B12</f>
         <v>1</v>
       </c>
-      <c r="C45" s="5" t="n">
+      <c r="C45" s="4" t="n">
         <f aca="false">C12</f>
         <v>61</v>
       </c>
-      <c r="D45" s="5" t="n">
+      <c r="D45" s="4" t="n">
         <f aca="false">D12</f>
         <v>60</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="4" t="n">
         <f aca="false">E12</f>
         <v>30</v>
       </c>
-      <c r="F45" s="5" t="n">
+      <c r="F45" s="4" t="n">
         <f aca="false">F12</f>
         <v>2</v>
       </c>
-      <c r="G45" s="5" t="n">
-        <f aca="false">G14</f>
-        <v>99</v>
-      </c>
-      <c r="H45" s="5" t="n">
+      <c r="G45" s="4" t="n">
+        <f aca="false">G12</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="4" t="n">
         <f aca="false">H12</f>
         <v>0</v>
       </c>
-      <c r="I45" s="5" t="n">
+      <c r="I45" s="4" t="n">
         <f aca="false">I12</f>
         <v>0</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="4" t="n">
         <f aca="false">J12</f>
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="n">
+      <c r="K45" s="4" t="n">
         <f aca="false">K12</f>
         <v>0</v>
       </c>
-      <c r="L45" s="5" t="n">
+      <c r="L45" s="4" t="n">
         <f aca="false">L12</f>
         <v>0</v>
       </c>
-      <c r="M45" s="5" t="n">
+      <c r="M45" s="4" t="n">
         <f aca="false">M12</f>
         <v>0</v>
       </c>
-      <c r="N45" s="5" t="n">
+      <c r="N45" s="4" t="n">
         <f aca="false">N12</f>
         <v>0</v>
       </c>
@@ -5519,196 +5610,196 @@
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
       <c r="C1" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
       <c r="C2" s="1"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
       <c r="C3" s="1"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="G3" s="5"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
       <c r="C4" s="1"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
-      <c r="D10" s="4"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="4"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="G4" s="5"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="6">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="8">
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
+      <c r="D9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="3"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
+      <c r="D11" s="3"/>
+      <c r="E11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="3"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
       <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="D12" s="3"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
       <c r="C13" s="1"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="G13" s="5"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
       <c r="C14" s="1"/>
-      <c r="J14" s="4"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="J14" s="3"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
       <c r="C15" s="1"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="J15" s="3"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="16">
       <c r="C16" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
       <c r="C17" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
       <c r="C18" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
       <c r="C19" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="20">
       <c r="C20" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="21">
       <c r="C21" s="1"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.45" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="22">
       <c r="C22" s="1"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4" t="s">
+      <c r="M22" s="5"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -5740,7 +5831,7 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.28627450980392"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -5770,12 +5861,12 @@
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.15686274509804"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/site/resources/statistics/intenzStats-2012.xlsx
+++ b/src/site/resources/statistics/intenzStats-2012.xlsx
@@ -166,7 +166,7 @@
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -177,79 +177,79 @@
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="9.4"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="10.95"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="9.7"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="7.8"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="9.65"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="9.25"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="10.7"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="12.2"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="8.1"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="12.9"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="8.5"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="10.1"/>
     </font>
     <font>
       <name val="Bitstream Vera Sans"/>
       <family val="2"/>
-      <color rgb="00000000"/>
+      <color rgb="FF000000"/>
       <sz val="13.2"/>
     </font>
   </fonts>
@@ -296,15 +296,29 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -317,68 +331,68 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="007E0021"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00B3B3B3"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00D9D9D9"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0083CAFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="00AECF00"/>
-      <rgbColor rgb="00FFD320"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF420E"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00004586"/>
-      <rgbColor rgb="00579D1C"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00314004"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF7E0021"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF83CAFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FFAECF00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF314004"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -393,7 +407,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-GB" sz="1300"/>
               <a:t>Enzyme entries (IntEnz)</a:t>
             </a:r>
           </a:p>
@@ -456,10 +470,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -504,10 +518,10 @@
                   <c:v>4929</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>4941</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>5022</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -576,10 +590,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -624,10 +638,10 @@
                   <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>825</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>836</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -696,10 +710,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -744,10 +758,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -816,10 +830,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -864,10 +878,10 @@
                   <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -936,10 +950,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -984,10 +998,10 @@
                   <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -1056,10 +1070,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1176,10 +1190,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1224,10 +1238,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -1296,10 +1310,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1367,11 +1381,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="54917625"/>
-        <c:axId val="48207922"/>
+        <c:axId val="82300299"/>
+        <c:axId val="34635203"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="54917625"/>
+        <c:axId val="82300299"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1400,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>release</a:t>
                 </a:r>
               </a:p>
@@ -1397,7 +1411,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="48207922"/>
+        <c:crossAx val="34635203"/>
         <c:crossesAt val="3000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1411,7 +1425,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48207922"/>
+        <c:axId val="34635203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3000"/>
@@ -1427,7 +1441,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="942">
+                  <a:rPr lang="en-GB" sz="942">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1452,7 +1466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54917625"/>
+        <c:crossAx val="82300299"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -1484,7 +1498,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1499,7 +1513,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-GB" sz="1300"/>
               <a:t>Enzyme entries (enzyme.dat)</a:t>
             </a:r>
           </a:p>
@@ -1562,10 +1576,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1610,10 +1624,10 @@
                   <c:v>5754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>5766</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5858</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1682,10 +1696,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1730,10 +1744,10 @@
                   <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1802,10 +1816,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -1850,10 +1864,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1873,11 +1887,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="47379245"/>
-        <c:axId val="38907458"/>
+        <c:axId val="38767062"/>
+        <c:axId val="95656525"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47379245"/>
+        <c:axId val="38767062"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,7 +1906,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr lang="en-GB" sz="900"/>
                   <a:t>release</a:t>
                 </a:r>
               </a:p>
@@ -1903,7 +1917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="38907458"/>
+        <c:crossAx val="95656525"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1917,7 +1931,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="38907458"/>
+        <c:axId val="95656525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4600"/>
@@ -1933,7 +1947,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="964">
+                  <a:rPr lang="en-GB" sz="964">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1958,7 +1972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47379245"/>
+        <c:crossAx val="38767062"/>
         <c:crosses val="min"/>
         <c:majorUnit val="100"/>
         <c:minorUnit val="50"/>
@@ -1992,7 +2006,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2007,7 +2021,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-GB" sz="1300"/>
               <a:t>Links (total)</a:t>
             </a:r>
           </a:p>
@@ -2070,10 +2084,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2118,10 +2132,10 @@
                   <c:v>3383</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>3383</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>3375</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2190,10 +2204,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2238,10 +2252,10 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2310,10 +2324,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2358,10 +2372,10 @@
                   <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>344</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2430,10 +2444,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2478,10 +2492,10 @@
                   <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2550,10 +2564,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2598,10 +2612,10 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2670,10 +2684,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2718,10 +2732,10 @@
                   <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -2741,11 +2755,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="787028"/>
-        <c:axId val="44053136"/>
+        <c:axId val="69540164"/>
+        <c:axId val="48601490"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="787028"/>
+        <c:axId val="69540164"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2760,7 +2774,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-GB" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2776,7 +2790,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="44053136"/>
+        <c:crossAx val="48601490"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2790,7 +2804,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44053136"/>
+        <c:axId val="48601490"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2805,7 +2819,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr lang="en-GB" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -2830,7 +2844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="787028"/>
+        <c:crossAx val="69540164"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -2862,7 +2876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2877,7 +2891,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-GB" sz="1300"/>
               <a:t>Cross-references (unique)</a:t>
             </a:r>
           </a:p>
@@ -2940,10 +2954,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -2988,10 +3002,10 @@
                   <c:v>207470</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>207625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>208398</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3060,10 +3074,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3108,10 +3122,10 @@
                   <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>3985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>3975</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3180,10 +3194,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3228,10 +3242,10 @@
                   <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3300,10 +3314,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3348,10 +3362,10 @@
                   <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>509</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>544</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3371,11 +3385,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="91872716"/>
-        <c:axId val="56974197"/>
+        <c:axId val="86038304"/>
+        <c:axId val="19357562"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91872716"/>
+        <c:axId val="86038304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,7 +3397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="56974197"/>
+        <c:crossAx val="19357562"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3397,7 +3411,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56974197"/>
+        <c:axId val="19357562"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -3413,7 +3427,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1218">
+                  <a:rPr lang="en-GB" sz="1218">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -3438,7 +3452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91872716"/>
+        <c:crossAx val="86038304"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -3470,7 +3484,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3485,7 +3499,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1300"/>
+              <a:rPr lang="en-GB" sz="1300"/>
               <a:t>Cross-references (total)</a:t>
             </a:r>
           </a:p>
@@ -3548,10 +3562,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3596,10 +3610,10 @@
                   <c:v>217964</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>218142</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>218957</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3668,10 +3682,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3716,10 +3730,10 @@
                   <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>4012</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>4002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3788,10 +3802,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3836,10 +3850,10 @@
                   <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3908,10 +3922,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v/>
@@ -3956,10 +3970,10 @@
                   <c:v>1548</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>NaN</c:v>
+                  <c:v>1547</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>1690</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>NaN</c:v>
@@ -3979,11 +3993,11 @@
         </c:ser>
         <c:overlap val="100"/>
         <c:gapWidth val="100"/>
-        <c:axId val="39992197"/>
-        <c:axId val="92735023"/>
+        <c:axId val="1215080"/>
+        <c:axId val="14801136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39992197"/>
+        <c:axId val="1215080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3991,7 +4005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="92735023"/>
+        <c:crossAx val="14801136"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4005,7 +4019,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92735023"/>
+        <c:axId val="14801136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="160000"/>
@@ -4021,7 +4035,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1290">
+                  <a:rPr lang="en-GB" sz="1290">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4046,7 +4060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39992197"/>
+        <c:crossAx val="1215080"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4078,7 +4092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -4133,10 +4147,10 @@
                   <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v/>
@@ -4184,10 +4198,10 @@
                   <c:v>19217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>NaN</c:v>
+                  <c:v>19241</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>NaN</c:v>
+                  <c:v>19414</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>NaN</c:v>
@@ -4206,11 +4220,11 @@
           </c:val>
         </c:ser>
         <c:marker val="0"/>
-        <c:axId val="8985573"/>
-        <c:axId val="93159410"/>
+        <c:axId val="10470191"/>
+        <c:axId val="88613349"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8985573"/>
+        <c:axId val="10470191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4225,7 +4239,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1319">
+                  <a:rPr lang="en-GB" sz="1319">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4241,7 +4255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="93159410"/>
+        <c:crossAx val="88613349"/>
         <c:crossesAt val="17000"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4255,7 +4269,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93159410"/>
+        <c:axId val="88613349"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4271,7 +4285,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1319">
+                  <a:rPr lang="en-GB" sz="1319">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -4296,7 +4310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8985573"/>
+        <c:crossAx val="10470191"/>
         <c:crosses val="min"/>
         <c:spPr>
           <a:ln>
@@ -4329,13 +4343,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>83880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4343,8 +4357,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="165600" y="160200"/>
-        <a:ext cx="11590200" cy="3836880"/>
+        <a:off x="165600" y="160560"/>
+        <a:ext cx="11590200" cy="3839040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4359,7 +4373,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>152280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -4373,8 +4387,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="152280" y="4081680"/>
-        <a:ext cx="11638800" cy="3740760"/>
+        <a:off x="152280" y="4082040"/>
+        <a:ext cx="11638800" cy="3740400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4459,7 +4473,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>318600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
@@ -4473,8 +4487,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="318600" y="3843360"/>
-        <a:ext cx="11249640" cy="3769200"/>
+        <a:off x="318600" y="3843720"/>
+        <a:ext cx="11249640" cy="3768840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4500,7 +4514,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>75600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4509,7 +4523,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="59400" y="51840"/>
-        <a:ext cx="10968480" cy="3861360"/>
+        <a:ext cx="10968480" cy="3895920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4530,15 +4544,16 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I1" activeCellId="0" pane="topLeft" sqref="I1"/>
+      <selection activeCell="K1" activeCellId="0" pane="topLeft" sqref="K1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7633928571429"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.4419642857143"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4563,8 +4578,14 @@
       <c r="H1" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="2">
+      <c r="I1" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -4589,14 +4610,18 @@
       <c r="H2" s="2" t="n">
         <v>41190</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="2" t="n">
+        <v>41227</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>41248</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -4621,8 +4646,14 @@
       <c r="H3" s="0" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="4">
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4647,8 +4678,14 @@
       <c r="H4" s="0" t="n">
         <v>67</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
+      <c r="I4" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -4673,8 +4710,14 @@
       <c r="H5" s="3" t="n">
         <v>285</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
+      <c r="I5" s="0" t="n">
+        <v>286</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4699,15 +4742,21 @@
       <c r="H6" s="3" t="n">
         <v>19217</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="7">
+      <c r="I6" s="0" t="n">
+        <v>19241</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>19414</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="H7" s="3"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13" outlineLevel="0" r="8">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -4732,8 +4781,14 @@
       <c r="H8" s="3" t="n">
         <v>4929</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="9">
+      <c r="I8" s="0" t="n">
+        <v>4941</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>5022</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -4758,8 +4813,14 @@
       <c r="H9" s="0" t="n">
         <v>825</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="10">
+      <c r="I9" s="0" t="n">
+        <v>825</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -4784,8 +4845,14 @@
       <c r="H10" s="0" t="n">
         <v>77</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="11">
+      <c r="I10" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -4810,8 +4877,14 @@
       <c r="H11" s="0" t="n">
         <v>104</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="12">
+      <c r="I11" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -4830,8 +4903,14 @@
       <c r="F12" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="13">
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -4840,7 +4919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -4850,18 +4929,24 @@
       <c r="H14" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="15">
+      <c r="I14" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="17">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -4886,8 +4971,14 @@
       <c r="H17" s="0" t="n">
         <v>1548</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="18">
+      <c r="I17" s="0" t="n">
+        <v>1547</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1690</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -4912,8 +5003,14 @@
       <c r="H18" s="0" t="n">
         <v>4012</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="19">
+      <c r="I18" s="0" t="n">
+        <v>4012</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>4002</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -4938,8 +5035,14 @@
       <c r="H19" s="0" t="n">
         <v>1442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="20">
+      <c r="I19" s="0" t="n">
+        <v>1442</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1442</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -4964,13 +5067,19 @@
       <c r="H20" s="0" t="n">
         <v>217964</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="21">
+      <c r="I20" s="0" t="n">
+        <v>218142</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>218957</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
@@ -4995,8 +5104,14 @@
       <c r="H22" s="0" t="n">
         <v>509</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="23">
+      <c r="I22" s="0" t="n">
+        <v>509</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
@@ -5021,8 +5136,14 @@
       <c r="H23" s="0" t="n">
         <v>3985</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="24">
+      <c r="I23" s="0" t="n">
+        <v>3985</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>3975</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -5047,8 +5168,14 @@
       <c r="H24" s="0" t="n">
         <v>466</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="25">
+      <c r="I24" s="0" t="n">
+        <v>466</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="4" t="s">
         <v>19</v>
       </c>
@@ -5073,13 +5200,19 @@
       <c r="H25" s="0" t="n">
         <v>207470</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="26">
+      <c r="I25" s="0" t="n">
+        <v>207625</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>208398</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="4" t="s">
         <v>22</v>
       </c>
@@ -5104,8 +5237,14 @@
       <c r="H27" s="0" t="n">
         <v>3383</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="28">
+      <c r="I27" s="0" t="n">
+        <v>3383</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>3375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -5130,8 +5269,14 @@
       <c r="H28" s="0" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="29">
+      <c r="I28" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -5156,8 +5301,14 @@
       <c r="H29" s="0" t="n">
         <v>344</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="30">
+      <c r="I29" s="0" t="n">
+        <v>344</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="4" t="s">
         <v>25</v>
       </c>
@@ -5182,8 +5333,14 @@
       <c r="H30" s="0" t="n">
         <v>352</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="31">
+      <c r="I30" s="0" t="n">
+        <v>352</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>352</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -5208,8 +5365,14 @@
       <c r="H31" s="0" t="n">
         <v>218</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="32">
+      <c r="I31" s="0" t="n">
+        <v>218</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
         <v>27</v>
       </c>
@@ -5234,13 +5397,19 @@
       <c r="H32" s="0" t="n">
         <v>724</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="33">
+      <c r="I32" s="0" t="n">
+        <v>722</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>713</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="34">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="4" t="s">
         <v>22</v>
       </c>
@@ -5265,8 +5434,14 @@
       <c r="H34" s="0" t="n">
         <v>3214</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="35">
+      <c r="I34" s="0" t="n">
+        <v>3214</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>3207</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -5291,8 +5466,14 @@
       <c r="H35" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="36">
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -5317,8 +5498,14 @@
       <c r="H36" s="0" t="n">
         <v>337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="37">
+      <c r="I36" s="0" t="n">
+        <v>337</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>337</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -5343,8 +5530,14 @@
       <c r="H37" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="38">
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -5369,8 +5562,14 @@
       <c r="H38" s="0" t="n">
         <v>78</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="39">
+      <c r="I38" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -5394,6 +5593,12 @@
       </c>
       <c r="H39" s="0" t="n">
         <v>667</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>665</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>658</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="40">
@@ -5444,11 +5649,11 @@
       </c>
       <c r="I43" s="4" t="n">
         <f aca="false">SUM(I8:I9)</f>
-        <v>0</v>
+        <v>5766</v>
       </c>
       <c r="J43" s="4" t="n">
         <f aca="false">SUM(J8:J9)</f>
-        <v>0</v>
+        <v>5858</v>
       </c>
       <c r="K43" s="4" t="n">
         <f aca="false">SUM(K8:K9)</f>
@@ -5501,11 +5706,11 @@
       </c>
       <c r="I44" s="4" t="n">
         <f aca="false">SUM(I10:I11)</f>
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J44" s="4" t="n">
         <f aca="false">SUM(J10:J11)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="K44" s="4" t="n">
         <f aca="false">SUM(K10:K11)</f>
@@ -5558,11 +5763,11 @@
       </c>
       <c r="I45" s="4" t="n">
         <f aca="false">I12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="4" t="n">
         <f aca="false">J12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="4" t="n">
         <f aca="false">K12</f>
@@ -5584,7 +5789,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Arial,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"Page &amp;P</oddFooter>
@@ -5603,11 +5808,12 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.07450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9241071428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.04910714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.5669642857143"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.37946428571429"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
@@ -5806,7 +6012,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5826,9 +6032,10 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8627450980392"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8125"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.25446428571429"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
@@ -5837,7 +6044,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5857,8 +6064,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.15686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="8.125"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.55" outlineLevel="0" r="1">
@@ -5871,7 +6079,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -5891,13 +6099,14 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.55"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1517857142857"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
